--- a/Networks/Parte4/Excel/Network16.xlsx
+++ b/Networks/Parte4/Excel/Network16.xlsx
@@ -524,52 +524,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.98337025022133</v>
+        <v>-96.46666825684912</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.908923676048226</v>
+        <v>-0.09480787604336607</v>
       </c>
       <c r="D2" t="n">
-        <v>-133.9704422155555</v>
+        <v>-100.4919959065659</v>
       </c>
       <c r="E2" t="n">
-        <v>94.29467890127059</v>
+        <v>60.37763814787296</v>
       </c>
       <c r="F2" t="n">
-        <v>83.21966424724042</v>
+        <v>-156.9944966294624</v>
       </c>
       <c r="G2" t="n">
-        <v>-189.6064568540788</v>
+        <v>59.43286883802325</v>
       </c>
       <c r="H2" t="n">
-        <v>-191.4370154668909</v>
+        <v>-165.0627348017731</v>
       </c>
       <c r="I2" t="n">
-        <v>-209.4004862958285</v>
+        <v>46.00518855658557</v>
       </c>
       <c r="J2" t="n">
-        <v>-235.5354548907171</v>
+        <v>-160.5746313205443</v>
       </c>
       <c r="K2" t="n">
-        <v>39.93443310288738</v>
+        <v>-150.8736514314649</v>
       </c>
       <c r="L2" t="n">
-        <v>-228.0784771747525</v>
+        <v>-134.8530198390092</v>
       </c>
       <c r="M2" t="n">
-        <v>130.7181137314871</v>
+        <v>-22.15070272920044</v>
       </c>
       <c r="N2" t="n">
-        <v>-73.42644660099955</v>
+        <v>98.03905139260361</v>
       </c>
       <c r="O2" t="n">
-        <v>93.74170299809853</v>
+        <v>60.17265246174674</v>
       </c>
       <c r="P2" t="n">
-        <v>10.58940822174995</v>
+        <v>-106.8984912012236</v>
       </c>
       <c r="Q2" t="n">
-        <v>-117.1504293076276</v>
+        <v>-28.25289488435505</v>
       </c>
     </row>
     <row r="3">
@@ -579,52 +579,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.2310840020521</v>
+        <v>87.85082751276639</v>
       </c>
       <c r="C3" t="n">
-        <v>105.1943249678028</v>
+        <v>116.6434496303378</v>
       </c>
       <c r="D3" t="n">
-        <v>104.8401858160845</v>
+        <v>86.00186329349501</v>
       </c>
       <c r="E3" t="n">
-        <v>-72.37127696049482</v>
+        <v>-65.74184547215084</v>
       </c>
       <c r="F3" t="n">
-        <v>59.65551119261361</v>
+        <v>40.93851092644854</v>
       </c>
       <c r="G3" t="n">
-        <v>102.8691306097836</v>
+        <v>90.97078417504368</v>
       </c>
       <c r="H3" t="n">
-        <v>72.21375246834995</v>
+        <v>60.1083072012806</v>
       </c>
       <c r="I3" t="n">
-        <v>91.01302995391018</v>
+        <v>41.69949760054234</v>
       </c>
       <c r="J3" t="n">
-        <v>69.45179696449448</v>
+        <v>53.56230620112576</v>
       </c>
       <c r="K3" t="n">
-        <v>110.8573182175899</v>
+        <v>57.96677939056418</v>
       </c>
       <c r="L3" t="n">
-        <v>68.49224083729263</v>
+        <v>72.51437418969205</v>
       </c>
       <c r="M3" t="n">
-        <v>98.10190944737786</v>
+        <v>85.44391387466088</v>
       </c>
       <c r="N3" t="n">
-        <v>113.3339053426205</v>
+        <v>79.69638968636215</v>
       </c>
       <c r="O3" t="n">
-        <v>111.8005076632254</v>
+        <v>96.55222620087987</v>
       </c>
       <c r="P3" t="n">
-        <v>66.83956810022907</v>
+        <v>86.76760605967978</v>
       </c>
       <c r="Q3" t="n">
-        <v>109.8963980428645</v>
+        <v>92.24386123399943</v>
       </c>
     </row>
     <row r="4">
@@ -634,52 +634,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-17.03064626774142</v>
+        <v>91.45474791632861</v>
       </c>
       <c r="C4" t="n">
-        <v>117.3350426876349</v>
+        <v>48.51969670222189</v>
       </c>
       <c r="D4" t="n">
-        <v>101.0980700640669</v>
+        <v>33.49191840994484</v>
       </c>
       <c r="E4" t="n">
-        <v>88.18130881616436</v>
+        <v>53.34027552622367</v>
       </c>
       <c r="F4" t="n">
-        <v>109.1089045853909</v>
+        <v>42.24285713075309</v>
       </c>
       <c r="G4" t="n">
-        <v>82.21918398638502</v>
+        <v>-26.95708167229242</v>
       </c>
       <c r="H4" t="n">
-        <v>58.25550811270802</v>
+        <v>47.65833943566464</v>
       </c>
       <c r="I4" t="n">
-        <v>78.54454661342211</v>
+        <v>87.81819203555764</v>
       </c>
       <c r="J4" t="n">
-        <v>57.01765140210185</v>
+        <v>40.83401713897556</v>
       </c>
       <c r="K4" t="n">
-        <v>-3.465115561510819</v>
+        <v>73.40654448479631</v>
       </c>
       <c r="L4" t="n">
-        <v>51.42237251988912</v>
+        <v>49.03276302486768</v>
       </c>
       <c r="M4" t="n">
-        <v>-9.36478349869261</v>
+        <v>95.34393966069389</v>
       </c>
       <c r="N4" t="n">
-        <v>108.4696272902515</v>
+        <v>-5.85298353227508</v>
       </c>
       <c r="O4" t="n">
-        <v>-9.090357323131228</v>
+        <v>23.2018266029816</v>
       </c>
       <c r="P4" t="n">
-        <v>3.904631883089852</v>
+        <v>54.92520732930956</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.29017118117612</v>
+        <v>19.84012212555737</v>
       </c>
     </row>
     <row r="5">
@@ -689,52 +689,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.82037107187295</v>
+        <v>10.41030422579971</v>
       </c>
       <c r="C5" t="n">
-        <v>9.848771358265246</v>
+        <v>11.53046999478885</v>
       </c>
       <c r="D5" t="n">
-        <v>32.82063644559004</v>
+        <v>25.36204848728877</v>
       </c>
       <c r="E5" t="n">
-        <v>13.2703895873143</v>
+        <v>8.867389129383875</v>
       </c>
       <c r="F5" t="n">
-        <v>15.60316890389677</v>
+        <v>16.61781095801848</v>
       </c>
       <c r="G5" t="n">
-        <v>41.96884000844494</v>
+        <v>7.8759674249787</v>
       </c>
       <c r="H5" t="n">
-        <v>31.56279228725521</v>
+        <v>30.69137647333278</v>
       </c>
       <c r="I5" t="n">
-        <v>36.81653971935009</v>
+        <v>0.7121046719257649</v>
       </c>
       <c r="J5" t="n">
-        <v>35.52975741199191</v>
+        <v>35.98398155076277</v>
       </c>
       <c r="K5" t="n">
-        <v>18.33696290558144</v>
+        <v>15.66387478528744</v>
       </c>
       <c r="L5" t="n">
-        <v>50.85160867798286</v>
+        <v>34.34778473193298</v>
       </c>
       <c r="M5" t="n">
-        <v>-6.670112813443814</v>
+        <v>10.87396035519473</v>
       </c>
       <c r="N5" t="n">
-        <v>31.15394508668704</v>
+        <v>8.861756689302434</v>
       </c>
       <c r="O5" t="n">
-        <v>0.181843496489081</v>
+        <v>22.8127018823403</v>
       </c>
       <c r="P5" t="n">
-        <v>105.8591700041932</v>
+        <v>46.13364681572625</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.81542244064688</v>
+        <v>70.86030672892906</v>
       </c>
     </row>
     <row r="6">
@@ -744,52 +744,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.272211309646</v>
+        <v>15.53388870076511</v>
       </c>
       <c r="C6" t="n">
-        <v>35.66506912472168</v>
+        <v>6.700080489138944</v>
       </c>
       <c r="D6" t="n">
-        <v>26.34484622942298</v>
+        <v>42.74571363457571</v>
       </c>
       <c r="E6" t="n">
-        <v>31.01420463750568</v>
+        <v>14.71931060869734</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.8782220783937584</v>
+        <v>17.04181719727595</v>
       </c>
       <c r="G6" t="n">
-        <v>37.4532126854394</v>
+        <v>24.49043943533821</v>
       </c>
       <c r="H6" t="n">
-        <v>23.06261409082737</v>
+        <v>24.139550078603</v>
       </c>
       <c r="I6" t="n">
-        <v>27.3253181262084</v>
+        <v>7.013120278892869</v>
       </c>
       <c r="J6" t="n">
-        <v>16.40266096671998</v>
+        <v>18.09638600167139</v>
       </c>
       <c r="K6" t="n">
-        <v>65.4030623231304</v>
+        <v>1.857394809978736</v>
       </c>
       <c r="L6" t="n">
-        <v>33.54233404638259</v>
+        <v>15.68051131621504</v>
       </c>
       <c r="M6" t="n">
-        <v>-2.214206326915409</v>
+        <v>13.06876856563135</v>
       </c>
       <c r="N6" t="n">
-        <v>25.85265687517414</v>
+        <v>2.962069356858701</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5412652866052067</v>
+        <v>0.9340544062732621</v>
       </c>
       <c r="P6" t="n">
-        <v>-10.88476604069317</v>
+        <v>9.983851734927446</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.10880727169999</v>
+        <v>13.38803031540529</v>
       </c>
     </row>
     <row r="7">
@@ -799,52 +799,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.094403211398551</v>
+        <v>15.21032549298393</v>
       </c>
       <c r="C7" t="n">
-        <v>6.331420685756918</v>
+        <v>7.728995083865871</v>
       </c>
       <c r="D7" t="n">
-        <v>6.992067404591098</v>
+        <v>-1.552963196010012</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.775840667446915</v>
+        <v>6.42490974394512</v>
       </c>
       <c r="F7" t="n">
-        <v>7.056274942389424</v>
+        <v>-0.1843261278838499</v>
       </c>
       <c r="G7" t="n">
-        <v>4.031012685833822</v>
+        <v>-3.641569767994171</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.140638136941195</v>
+        <v>2.576808402249654</v>
       </c>
       <c r="I7" t="n">
-        <v>0.655620316429831</v>
+        <v>5.763245046133774</v>
       </c>
       <c r="J7" t="n">
-        <v>3.162322292799595</v>
+        <v>-2.432806300554565</v>
       </c>
       <c r="K7" t="n">
-        <v>5.780528052303049</v>
+        <v>12.31364635709139</v>
       </c>
       <c r="L7" t="n">
-        <v>24.3854399287751</v>
+        <v>0.6190783370522572</v>
       </c>
       <c r="M7" t="n">
-        <v>-1.794074667795754</v>
+        <v>4.411664937249305</v>
       </c>
       <c r="N7" t="n">
-        <v>12.40811684400568</v>
+        <v>-0.7064248728435306</v>
       </c>
       <c r="O7" t="n">
-        <v>2.318631724886696</v>
+        <v>5.8737102799694</v>
       </c>
       <c r="P7" t="n">
-        <v>6.779922597063302</v>
+        <v>1.276548924858215</v>
       </c>
       <c r="Q7" t="n">
-        <v>-1.462918212114227</v>
+        <v>0.1040451786725431</v>
       </c>
     </row>
     <row r="8">
@@ -854,52 +854,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.09866430634183157</v>
+        <v>-3.006573661561808</v>
       </c>
       <c r="C8" t="n">
-        <v>9.849348737251239</v>
+        <v>1.897718660232665</v>
       </c>
       <c r="D8" t="n">
-        <v>4.97451012991174</v>
+        <v>-2.065122003052232</v>
       </c>
       <c r="E8" t="n">
-        <v>5.370920880405901</v>
+        <v>5.44227760587315</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3574265545762166</v>
+        <v>2.853661471441971</v>
       </c>
       <c r="G8" t="n">
-        <v>1.648112212096285</v>
+        <v>-4.737158062427254</v>
       </c>
       <c r="H8" t="n">
-        <v>7.094898088479519</v>
+        <v>-4.648281149196145</v>
       </c>
       <c r="I8" t="n">
-        <v>4.187858620895138</v>
+        <v>5.181526222559645</v>
       </c>
       <c r="J8" t="n">
-        <v>16.77092352769175</v>
+        <v>-0.7160103480767851</v>
       </c>
       <c r="K8" t="n">
-        <v>4.641454461179956</v>
+        <v>-2.45921628038894</v>
       </c>
       <c r="L8" t="n">
-        <v>-8.547482392355727</v>
+        <v>3.134907327161828</v>
       </c>
       <c r="M8" t="n">
-        <v>-2.530524409443613</v>
+        <v>-0.1143434045131765</v>
       </c>
       <c r="N8" t="n">
-        <v>5.475613599202434</v>
+        <v>-0.6716865449645854</v>
       </c>
       <c r="O8" t="n">
-        <v>1.42857313923721</v>
+        <v>3.481826853836204</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.451615781846021</v>
+        <v>8.341370802047996</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.53225935608742</v>
+        <v>8.529465923360503</v>
       </c>
     </row>
     <row r="9">
@@ -909,52 +909,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.209771932775719</v>
+        <v>-1.963698006972093</v>
       </c>
       <c r="C9" t="n">
-        <v>2.330829825794633</v>
+        <v>4.658382246481182</v>
       </c>
       <c r="D9" t="n">
-        <v>9.258650729733702</v>
+        <v>16.98674377688561</v>
       </c>
       <c r="E9" t="n">
-        <v>1.184922838168815</v>
+        <v>-0.1303112556414516</v>
       </c>
       <c r="F9" t="n">
-        <v>2.054302248642712</v>
+        <v>3.633433547363901</v>
       </c>
       <c r="G9" t="n">
-        <v>3.465182531534362</v>
+        <v>0.8676011996169525</v>
       </c>
       <c r="H9" t="n">
-        <v>9.866615390163631</v>
+        <v>1.806921842145263</v>
       </c>
       <c r="I9" t="n">
-        <v>3.582500853159861</v>
+        <v>-0.1289539537934635</v>
       </c>
       <c r="J9" t="n">
-        <v>3.906997372738635</v>
+        <v>5.807773347432053</v>
       </c>
       <c r="K9" t="n">
-        <v>2.437269437944595</v>
+        <v>3.431812179367124</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5320979323197903</v>
+        <v>3.070574566612545</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4895035812349069</v>
+        <v>-5.541300647940449</v>
       </c>
       <c r="N9" t="n">
-        <v>5.890166033072256</v>
+        <v>1.514618187954278</v>
       </c>
       <c r="O9" t="n">
-        <v>-1.335499530417935</v>
+        <v>4.470482461895665</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.026659524094701</v>
+        <v>-0.6728589738703831</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.05393373849017532</v>
+        <v>3.676153684553503</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-234.0924724353752</v>
+        <v>-120.96144736032</v>
       </c>
     </row>
     <row r="3">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>184.152883243322</v>
+        <v>203.5245476012108</v>
       </c>
     </row>
     <row r="4">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191.9438337164697</v>
+        <v>175.8353032697162</v>
       </c>
     </row>
     <row r="5">
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>229.0956070175572</v>
+        <v>189.3482587257351</v>
       </c>
     </row>
     <row r="6">
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>219.0948121754621</v>
+        <v>204.2174265515936</v>
       </c>
     </row>
     <row r="7">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.4570388722195</v>
+        <v>252.3087708012458</v>
       </c>
     </row>
     <row r="8">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>273.3914655605949</v>
+        <v>171.6691488211002</v>
       </c>
     </row>
     <row r="9">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>245.4532223050292</v>
+        <v>280.5750348098936</v>
       </c>
     </row>
     <row r="10">
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.1219678549801</v>
+        <v>191.2706505513266</v>
       </c>
     </row>
     <row r="11">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>319.3476087507901</v>
+        <v>270.5675106169301</v>
       </c>
     </row>
     <row r="12">
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>137.9138742741719</v>
+        <v>235.0905588785757</v>
       </c>
     </row>
     <row r="13">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>281.4159621061085</v>
+        <v>244.6378895374059</v>
       </c>
     </row>
     <row r="14">
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>225.5732989403251</v>
+        <v>205.1207063958388</v>
       </c>
     </row>
     <row r="15">
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>215.968125316838</v>
+        <v>198.7650628732942</v>
       </c>
     </row>
     <row r="16">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.315403422743</v>
+        <v>183.4333072697281</v>
       </c>
     </row>
     <row r="17">
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>114.6324645832751</v>
+        <v>221.5530269450389</v>
       </c>
     </row>
     <row r="18">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>197.2222168628139</v>
+        <v>173.5123285457267</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte4/Excel/Network16.xlsx
+++ b/Networks/Parte4/Excel/Network16.xlsx
@@ -524,52 +524,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-96.46666825684912</v>
+        <v>17.52174908023317</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.09480787604336607</v>
+        <v>-100.893203535419</v>
       </c>
       <c r="D2" t="n">
-        <v>-100.4919959065659</v>
+        <v>-253.7459140461473</v>
       </c>
       <c r="E2" t="n">
-        <v>60.37763814787296</v>
+        <v>107.9238455660088</v>
       </c>
       <c r="F2" t="n">
-        <v>-156.9944966294624</v>
+        <v>-151.0282629413846</v>
       </c>
       <c r="G2" t="n">
-        <v>59.43286883802325</v>
+        <v>1.46647197513469</v>
       </c>
       <c r="H2" t="n">
-        <v>-165.0627348017731</v>
+        <v>110.1954550252133</v>
       </c>
       <c r="I2" t="n">
-        <v>46.00518855658557</v>
+        <v>51.36515074078697</v>
       </c>
       <c r="J2" t="n">
-        <v>-160.5746313205443</v>
+        <v>-127.7249681147797</v>
       </c>
       <c r="K2" t="n">
-        <v>-150.8736514314649</v>
+        <v>-239.9590014333657</v>
       </c>
       <c r="L2" t="n">
-        <v>-134.8530198390092</v>
+        <v>-273.5606646614856</v>
       </c>
       <c r="M2" t="n">
-        <v>-22.15070272920044</v>
+        <v>-206.5729696041453</v>
       </c>
       <c r="N2" t="n">
-        <v>98.03905139260361</v>
+        <v>139.4498828216516</v>
       </c>
       <c r="O2" t="n">
-        <v>60.17265246174674</v>
+        <v>101.7360060608602</v>
       </c>
       <c r="P2" t="n">
-        <v>-106.8984912012236</v>
+        <v>-247.0624771337359</v>
       </c>
       <c r="Q2" t="n">
-        <v>-28.25289488435505</v>
+        <v>-71.45401113135689</v>
       </c>
     </row>
     <row r="3">
@@ -579,52 +579,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.85082751276639</v>
+        <v>163.2394870440869</v>
       </c>
       <c r="C3" t="n">
-        <v>116.6434496303378</v>
+        <v>138.467964679905</v>
       </c>
       <c r="D3" t="n">
-        <v>86.00186329349501</v>
+        <v>87.78267001415082</v>
       </c>
       <c r="E3" t="n">
-        <v>-65.74184547215084</v>
+        <v>-108.9596000733132</v>
       </c>
       <c r="F3" t="n">
-        <v>40.93851092644854</v>
+        <v>120.0131255058547</v>
       </c>
       <c r="G3" t="n">
-        <v>90.97078417504368</v>
+        <v>110.4340758412134</v>
       </c>
       <c r="H3" t="n">
-        <v>60.1083072012806</v>
+        <v>119.4592357709782</v>
       </c>
       <c r="I3" t="n">
-        <v>41.69949760054234</v>
+        <v>102.7061926228809</v>
       </c>
       <c r="J3" t="n">
-        <v>53.56230620112576</v>
+        <v>16.37383178114528</v>
       </c>
       <c r="K3" t="n">
-        <v>57.96677939056418</v>
+        <v>80.14022780826024</v>
       </c>
       <c r="L3" t="n">
-        <v>72.51437418969205</v>
+        <v>63.17613630716946</v>
       </c>
       <c r="M3" t="n">
-        <v>85.44391387466088</v>
+        <v>112.4853733570018</v>
       </c>
       <c r="N3" t="n">
-        <v>79.69638968636215</v>
+        <v>94.13155047707902</v>
       </c>
       <c r="O3" t="n">
-        <v>96.55222620087987</v>
+        <v>51.22038650813345</v>
       </c>
       <c r="P3" t="n">
-        <v>86.76760605967978</v>
+        <v>122.5004998346587</v>
       </c>
       <c r="Q3" t="n">
-        <v>92.24386123399943</v>
+        <v>109.9507146343067</v>
       </c>
     </row>
     <row r="4">
@@ -634,52 +634,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.45474791632861</v>
+        <v>15.10303808092321</v>
       </c>
       <c r="C4" t="n">
-        <v>48.51969670222189</v>
+        <v>134.5291900505603</v>
       </c>
       <c r="D4" t="n">
-        <v>33.49191840994484</v>
+        <v>65.34932337980092</v>
       </c>
       <c r="E4" t="n">
-        <v>53.34027552622367</v>
+        <v>77.04772316723474</v>
       </c>
       <c r="F4" t="n">
-        <v>42.24285713075309</v>
+        <v>109.8269576727522</v>
       </c>
       <c r="G4" t="n">
-        <v>-26.95708167229242</v>
+        <v>152.1050843975964</v>
       </c>
       <c r="H4" t="n">
-        <v>47.65833943566464</v>
+        <v>8.421537841797646</v>
       </c>
       <c r="I4" t="n">
-        <v>87.81819203555764</v>
+        <v>16.014254867653</v>
       </c>
       <c r="J4" t="n">
-        <v>40.83401713897556</v>
+        <v>15.34320293210869</v>
       </c>
       <c r="K4" t="n">
-        <v>73.40654448479631</v>
+        <v>78.58189730694207</v>
       </c>
       <c r="L4" t="n">
-        <v>49.03276302486768</v>
+        <v>75.55550602513725</v>
       </c>
       <c r="M4" t="n">
-        <v>95.34393966069389</v>
+        <v>101.5682098892248</v>
       </c>
       <c r="N4" t="n">
-        <v>-5.85298353227508</v>
+        <v>-36.46582791134732</v>
       </c>
       <c r="O4" t="n">
-        <v>23.2018266029816</v>
+        <v>121.3085057409164</v>
       </c>
       <c r="P4" t="n">
-        <v>54.92520732930956</v>
+        <v>86.03205496046546</v>
       </c>
       <c r="Q4" t="n">
-        <v>19.84012212555737</v>
+        <v>1.827145740023373</v>
       </c>
     </row>
     <row r="5">
@@ -689,52 +689,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.41030422579971</v>
+        <v>3.225719602281287</v>
       </c>
       <c r="C5" t="n">
-        <v>11.53046999478885</v>
+        <v>40.44560718504738</v>
       </c>
       <c r="D5" t="n">
-        <v>25.36204848728877</v>
+        <v>52.16820059953708</v>
       </c>
       <c r="E5" t="n">
-        <v>8.867389129383875</v>
+        <v>22.81895955706307</v>
       </c>
       <c r="F5" t="n">
-        <v>16.61781095801848</v>
+        <v>36.230829550217</v>
       </c>
       <c r="G5" t="n">
-        <v>7.8759674249787</v>
+        <v>28.64881925474872</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69137647333278</v>
+        <v>0.03304959513414583</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7121046719257649</v>
+        <v>78.47672535651779</v>
       </c>
       <c r="J5" t="n">
-        <v>35.98398155076277</v>
+        <v>12.94930490526639</v>
       </c>
       <c r="K5" t="n">
-        <v>15.66387478528744</v>
+        <v>30.91276756253835</v>
       </c>
       <c r="L5" t="n">
-        <v>34.34778473193298</v>
+        <v>38.77656419223718</v>
       </c>
       <c r="M5" t="n">
-        <v>10.87396035519473</v>
+        <v>39.27927640229192</v>
       </c>
       <c r="N5" t="n">
-        <v>8.861756689302434</v>
+        <v>-13.86073010804247</v>
       </c>
       <c r="O5" t="n">
-        <v>22.8127018823403</v>
+        <v>15.54373779215004</v>
       </c>
       <c r="P5" t="n">
-        <v>46.13364681572625</v>
+        <v>33.84186723896159</v>
       </c>
       <c r="Q5" t="n">
-        <v>70.86030672892906</v>
+        <v>84.36068129028564</v>
       </c>
     </row>
     <row r="6">
@@ -744,52 +744,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.53388870076511</v>
+        <v>2.158049336495443</v>
       </c>
       <c r="C6" t="n">
-        <v>6.700080489138944</v>
+        <v>27.304254602966</v>
       </c>
       <c r="D6" t="n">
-        <v>42.74571363457571</v>
+        <v>47.59686450180602</v>
       </c>
       <c r="E6" t="n">
-        <v>14.71931060869734</v>
+        <v>8.359652446930026</v>
       </c>
       <c r="F6" t="n">
-        <v>17.04181719727595</v>
+        <v>17.88614437152967</v>
       </c>
       <c r="G6" t="n">
-        <v>24.49043943533821</v>
+        <v>6.034608574922186</v>
       </c>
       <c r="H6" t="n">
-        <v>24.139550078603</v>
+        <v>-1.341653568058504</v>
       </c>
       <c r="I6" t="n">
-        <v>7.013120278892869</v>
+        <v>51.23449841308484</v>
       </c>
       <c r="J6" t="n">
-        <v>18.09638600167139</v>
+        <v>5.466281339809301</v>
       </c>
       <c r="K6" t="n">
-        <v>1.857394809978736</v>
+        <v>26.51491373020922</v>
       </c>
       <c r="L6" t="n">
-        <v>15.68051131621504</v>
+        <v>20.82571324874456</v>
       </c>
       <c r="M6" t="n">
-        <v>13.06876856563135</v>
+        <v>7.970643821394323</v>
       </c>
       <c r="N6" t="n">
-        <v>2.962069356858701</v>
+        <v>1.525230771869246</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9340544062732621</v>
+        <v>-0.8860970335930369</v>
       </c>
       <c r="P6" t="n">
-        <v>9.983851734927446</v>
+        <v>68.56896269929382</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.38803031540529</v>
+        <v>63.31450550052813</v>
       </c>
     </row>
     <row r="7">
@@ -799,52 +799,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.21032549298393</v>
+        <v>10.13463425395391</v>
       </c>
       <c r="C7" t="n">
-        <v>7.728995083865871</v>
+        <v>1.828032784501033</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.552963196010012</v>
+        <v>8.375127640032703</v>
       </c>
       <c r="E7" t="n">
-        <v>6.42490974394512</v>
+        <v>-1.140080701523613</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1843261278838499</v>
+        <v>7.177438031889831</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.641569767994171</v>
+        <v>10.4748899481971</v>
       </c>
       <c r="H7" t="n">
-        <v>2.576808402249654</v>
+        <v>-2.787598572113602</v>
       </c>
       <c r="I7" t="n">
-        <v>5.763245046133774</v>
+        <v>5.683436039149808</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.432806300554565</v>
+        <v>-0.005895863951285265</v>
       </c>
       <c r="K7" t="n">
-        <v>12.31364635709139</v>
+        <v>1.858700160096941</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6190783370522572</v>
+        <v>11.91649412951666</v>
       </c>
       <c r="M7" t="n">
-        <v>4.411664937249305</v>
+        <v>0.6877303061712728</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.7064248728435306</v>
+        <v>-2.30686291910636</v>
       </c>
       <c r="O7" t="n">
-        <v>5.8737102799694</v>
+        <v>3.232920018619978</v>
       </c>
       <c r="P7" t="n">
-        <v>1.276548924858215</v>
+        <v>0.5370394427357691</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1040451786725431</v>
+        <v>11.06960240024262</v>
       </c>
     </row>
     <row r="8">
@@ -854,52 +854,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.006573661561808</v>
+        <v>1.262608038207853</v>
       </c>
       <c r="C8" t="n">
-        <v>1.897718660232665</v>
+        <v>-2.103242772726316</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.065122003052232</v>
+        <v>-12.7925489476808</v>
       </c>
       <c r="E8" t="n">
-        <v>5.44227760587315</v>
+        <v>11.29610652727738</v>
       </c>
       <c r="F8" t="n">
-        <v>2.853661471441971</v>
+        <v>-5.358864416037344</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.737158062427254</v>
+        <v>1.631099993578877</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.648281149196145</v>
+        <v>1.470451434136899</v>
       </c>
       <c r="I8" t="n">
-        <v>5.181526222559645</v>
+        <v>4.844390201901318</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.7160103480767851</v>
+        <v>2.365451291020325</v>
       </c>
       <c r="K8" t="n">
-        <v>-2.45921628038894</v>
+        <v>14.20847864289112</v>
       </c>
       <c r="L8" t="n">
-        <v>3.134907327161828</v>
+        <v>3.21826602420645</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.1143434045131765</v>
+        <v>-0.8117941516062978</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.6716865449645854</v>
+        <v>2.343403470909818</v>
       </c>
       <c r="O8" t="n">
-        <v>3.481826853836204</v>
+        <v>1.440828391765877</v>
       </c>
       <c r="P8" t="n">
-        <v>8.341370802047996</v>
+        <v>12.48986792232793</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.529465923360503</v>
+        <v>8.868937333917367</v>
       </c>
     </row>
     <row r="9">
@@ -909,52 +909,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.963698006972093</v>
+        <v>-2.805933775048922</v>
       </c>
       <c r="C9" t="n">
-        <v>4.658382246481182</v>
+        <v>1.175563066841509</v>
       </c>
       <c r="D9" t="n">
-        <v>16.98674377688561</v>
+        <v>-5.815678669948427</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1303112556414516</v>
+        <v>5.201054681109448</v>
       </c>
       <c r="F9" t="n">
-        <v>3.633433547363901</v>
+        <v>6.61892027949322</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8676011996169525</v>
+        <v>4.859694546131098</v>
       </c>
       <c r="H9" t="n">
-        <v>1.806921842145263</v>
+        <v>0.3584038281236141</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1289539537934635</v>
+        <v>2.247397728566543</v>
       </c>
       <c r="J9" t="n">
-        <v>5.807773347432053</v>
+        <v>-4.561267823869759</v>
       </c>
       <c r="K9" t="n">
-        <v>3.431812179367124</v>
+        <v>12.74540661251133</v>
       </c>
       <c r="L9" t="n">
-        <v>3.070574566612545</v>
+        <v>2.369911627237258</v>
       </c>
       <c r="M9" t="n">
-        <v>-5.541300647940449</v>
+        <v>4.058376408730056</v>
       </c>
       <c r="N9" t="n">
-        <v>1.514618187954278</v>
+        <v>4.563502291377146</v>
       </c>
       <c r="O9" t="n">
-        <v>4.470482461895665</v>
+        <v>5.354036491990614</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.6728589738703831</v>
+        <v>-2.460290098992448</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.676153684553503</v>
+        <v>3.59606066889839</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-120.96144736032</v>
+        <v>-286.2656495554073</v>
       </c>
     </row>
     <row r="3">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>203.5245476012108</v>
+        <v>214.0454383851693</v>
       </c>
     </row>
     <row r="4">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.8353032697162</v>
+        <v>243.3578896610716</v>
       </c>
     </row>
     <row r="5">
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>189.3482587257351</v>
+        <v>298.3238326727351</v>
       </c>
     </row>
     <row r="6">
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>204.2174265515936</v>
+        <v>190.433678109844</v>
       </c>
     </row>
     <row r="7">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>252.3087708012458</v>
+        <v>255.6724660025462</v>
       </c>
     </row>
     <row r="8">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>171.6691488211002</v>
+        <v>211.6169476861319</v>
       </c>
     </row>
     <row r="9">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>280.5750348098936</v>
+        <v>236.9979842564929</v>
       </c>
     </row>
     <row r="10">
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>191.2706505513266</v>
+        <v>161.2302404076299</v>
       </c>
     </row>
     <row r="11">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>270.5675106169301</v>
+        <v>210.0717368524505</v>
       </c>
     </row>
     <row r="12">
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>235.0905588785757</v>
+        <v>303.8826939698105</v>
       </c>
     </row>
     <row r="13">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.6378895374059</v>
+        <v>322.8307409784812</v>
       </c>
     </row>
     <row r="14">
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>205.1207063958388</v>
+        <v>277.7405656534738</v>
       </c>
     </row>
     <row r="15">
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>198.7650628732942</v>
+        <v>241.4250380089846</v>
       </c>
     </row>
     <row r="16">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.4333072697281</v>
+        <v>212.6320115923584</v>
       </c>
     </row>
     <row r="17">
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>221.5530269450389</v>
+        <v>283.2987504435488</v>
       </c>
     </row>
     <row r="18">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>173.5123285457267</v>
+        <v>173.1145402422945</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte4/Excel/Network16.xlsx
+++ b/Networks/Parte4/Excel/Network16.xlsx
@@ -524,52 +524,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.52174908023317</v>
+        <v>-243.1939921186173</v>
       </c>
       <c r="C2" t="n">
-        <v>-100.893203535419</v>
+        <v>-81.30094749596974</v>
       </c>
       <c r="D2" t="n">
-        <v>-253.7459140461473</v>
+        <v>-180.9990379920282</v>
       </c>
       <c r="E2" t="n">
-        <v>107.9238455660088</v>
+        <v>66.47060873810901</v>
       </c>
       <c r="F2" t="n">
-        <v>-151.0282629413846</v>
+        <v>-81.38914818221747</v>
       </c>
       <c r="G2" t="n">
-        <v>1.46647197513469</v>
+        <v>16.69341000807308</v>
       </c>
       <c r="H2" t="n">
-        <v>110.1954550252133</v>
+        <v>101.8449389561158</v>
       </c>
       <c r="I2" t="n">
-        <v>51.36515074078697</v>
+        <v>84.40763551555976</v>
       </c>
       <c r="J2" t="n">
-        <v>-127.7249681147797</v>
+        <v>-200.7032067908499</v>
       </c>
       <c r="K2" t="n">
-        <v>-239.9590014333657</v>
+        <v>-239.6031066167007</v>
       </c>
       <c r="L2" t="n">
-        <v>-273.5606646614856</v>
+        <v>146.0025018955688</v>
       </c>
       <c r="M2" t="n">
-        <v>-206.5729696041453</v>
+        <v>101.9121830324092</v>
       </c>
       <c r="N2" t="n">
-        <v>139.4498828216516</v>
+        <v>-151.3686498915748</v>
       </c>
       <c r="O2" t="n">
-        <v>101.7360060608602</v>
+        <v>5.635390028382238</v>
       </c>
       <c r="P2" t="n">
-        <v>-247.0624771337359</v>
+        <v>-259.4556294321636</v>
       </c>
       <c r="Q2" t="n">
-        <v>-71.45401113135689</v>
+        <v>-246.8643984678709</v>
       </c>
     </row>
     <row r="3">
@@ -579,52 +579,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163.2394870440869</v>
+        <v>113.6319220127359</v>
       </c>
       <c r="C3" t="n">
-        <v>138.467964679905</v>
+        <v>119.6674536229856</v>
       </c>
       <c r="D3" t="n">
-        <v>87.78267001415082</v>
+        <v>83.14238006490058</v>
       </c>
       <c r="E3" t="n">
-        <v>-108.9596000733132</v>
+        <v>56.92100178758089</v>
       </c>
       <c r="F3" t="n">
-        <v>120.0131255058547</v>
+        <v>128.1607460927516</v>
       </c>
       <c r="G3" t="n">
-        <v>110.4340758412134</v>
+        <v>171.4109663068704</v>
       </c>
       <c r="H3" t="n">
-        <v>119.4592357709782</v>
+        <v>129.2003996650804</v>
       </c>
       <c r="I3" t="n">
-        <v>102.7061926228809</v>
+        <v>58.50476529219119</v>
       </c>
       <c r="J3" t="n">
-        <v>16.37383178114528</v>
+        <v>112.197919324819</v>
       </c>
       <c r="K3" t="n">
-        <v>80.14022780826024</v>
+        <v>64.96024009533195</v>
       </c>
       <c r="L3" t="n">
-        <v>63.17613630716946</v>
+        <v>104.7653737607316</v>
       </c>
       <c r="M3" t="n">
-        <v>112.4853733570018</v>
+        <v>-83.09910869998495</v>
       </c>
       <c r="N3" t="n">
-        <v>94.13155047707902</v>
+        <v>131.1186705829199</v>
       </c>
       <c r="O3" t="n">
-        <v>51.22038650813345</v>
+        <v>121.2680636650181</v>
       </c>
       <c r="P3" t="n">
-        <v>122.5004998346587</v>
+        <v>64.39915265898586</v>
       </c>
       <c r="Q3" t="n">
-        <v>109.9507146343067</v>
+        <v>79.77513112721221</v>
       </c>
     </row>
     <row r="4">
@@ -634,52 +634,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.10303808092321</v>
+        <v>86.81811540575269</v>
       </c>
       <c r="C4" t="n">
-        <v>134.5291900505603</v>
+        <v>28.13002774007484</v>
       </c>
       <c r="D4" t="n">
-        <v>65.34932337980092</v>
+        <v>60.39618540557586</v>
       </c>
       <c r="E4" t="n">
-        <v>77.04772316723474</v>
+        <v>2.907015918497961</v>
       </c>
       <c r="F4" t="n">
-        <v>109.8269576727522</v>
+        <v>120.0480845388575</v>
       </c>
       <c r="G4" t="n">
-        <v>152.1050843975964</v>
+        <v>4.93944801234199</v>
       </c>
       <c r="H4" t="n">
-        <v>8.421537841797646</v>
+        <v>-13.33194352916146</v>
       </c>
       <c r="I4" t="n">
-        <v>16.014254867653</v>
+        <v>109.7717961123744</v>
       </c>
       <c r="J4" t="n">
-        <v>15.34320293210869</v>
+        <v>102.3713184613232</v>
       </c>
       <c r="K4" t="n">
-        <v>78.58189730694207</v>
+        <v>54.80396990263039</v>
       </c>
       <c r="L4" t="n">
-        <v>75.55550602513725</v>
+        <v>-8.632618097190955</v>
       </c>
       <c r="M4" t="n">
-        <v>101.5682098892248</v>
+        <v>92.12903061158782</v>
       </c>
       <c r="N4" t="n">
-        <v>-36.46582791134732</v>
+        <v>108.8919848257689</v>
       </c>
       <c r="O4" t="n">
-        <v>121.3085057409164</v>
+        <v>112.8494175487239</v>
       </c>
       <c r="P4" t="n">
-        <v>86.03205496046546</v>
+        <v>60.16204154303793</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.827145740023373</v>
+        <v>69.14370838050482</v>
       </c>
     </row>
     <row r="5">
@@ -689,52 +689,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.225719602281287</v>
+        <v>37.33970044680822</v>
       </c>
       <c r="C5" t="n">
-        <v>40.44560718504738</v>
+        <v>105.8767028341903</v>
       </c>
       <c r="D5" t="n">
-        <v>52.16820059953708</v>
+        <v>47.08830341561317</v>
       </c>
       <c r="E5" t="n">
-        <v>22.81895955706307</v>
+        <v>93.59233344982236</v>
       </c>
       <c r="F5" t="n">
-        <v>36.230829550217</v>
+        <v>28.11238677540703</v>
       </c>
       <c r="G5" t="n">
-        <v>28.64881925474872</v>
+        <v>0.8325292616237553</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03304959513414583</v>
+        <v>2.217363088962681</v>
       </c>
       <c r="I5" t="n">
-        <v>78.47672535651779</v>
+        <v>11.18402384897622</v>
       </c>
       <c r="J5" t="n">
-        <v>12.94930490526639</v>
+        <v>41.44191902213637</v>
       </c>
       <c r="K5" t="n">
-        <v>30.91276756253835</v>
+        <v>48.53281636394871</v>
       </c>
       <c r="L5" t="n">
-        <v>38.77656419223718</v>
+        <v>-10.0585884040484</v>
       </c>
       <c r="M5" t="n">
-        <v>39.27927640229192</v>
+        <v>14.88436247832616</v>
       </c>
       <c r="N5" t="n">
-        <v>-13.86073010804247</v>
+        <v>44.89994228350574</v>
       </c>
       <c r="O5" t="n">
-        <v>15.54373779215004</v>
+        <v>16.74658281456966</v>
       </c>
       <c r="P5" t="n">
-        <v>33.84186723896159</v>
+        <v>29.14513131130226</v>
       </c>
       <c r="Q5" t="n">
-        <v>84.36068129028564</v>
+        <v>55.50385203414432</v>
       </c>
     </row>
     <row r="6">
@@ -744,52 +744,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.158049336495443</v>
+        <v>30.71402753062653</v>
       </c>
       <c r="C6" t="n">
-        <v>27.304254602966</v>
+        <v>33.78460257228782</v>
       </c>
       <c r="D6" t="n">
-        <v>47.59686450180602</v>
+        <v>30.20333968747974</v>
       </c>
       <c r="E6" t="n">
-        <v>8.359652446930026</v>
+        <v>51.71956793103686</v>
       </c>
       <c r="F6" t="n">
-        <v>17.88614437152967</v>
+        <v>25.19994864718893</v>
       </c>
       <c r="G6" t="n">
-        <v>6.034608574922186</v>
+        <v>9.778087468236032</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.341653568058504</v>
+        <v>4.401552600219372</v>
       </c>
       <c r="I6" t="n">
-        <v>51.23449841308484</v>
+        <v>0.2410845010952696</v>
       </c>
       <c r="J6" t="n">
-        <v>5.466281339809301</v>
+        <v>15.88501938413959</v>
       </c>
       <c r="K6" t="n">
-        <v>26.51491373020922</v>
+        <v>29.50388027570528</v>
       </c>
       <c r="L6" t="n">
-        <v>20.82571324874456</v>
+        <v>-2.082729104739657</v>
       </c>
       <c r="M6" t="n">
-        <v>7.970643821394323</v>
+        <v>15.34061134369629</v>
       </c>
       <c r="N6" t="n">
-        <v>1.525230771869246</v>
+        <v>34.96449189011512</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.8860970335930369</v>
+        <v>23.39425956166872</v>
       </c>
       <c r="P6" t="n">
-        <v>68.56896269929382</v>
+        <v>25.19671158318345</v>
       </c>
       <c r="Q6" t="n">
-        <v>63.31450550052813</v>
+        <v>30.61937460147919</v>
       </c>
     </row>
     <row r="7">
@@ -799,52 +799,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.13463425395391</v>
+        <v>13.54439782395952</v>
       </c>
       <c r="C7" t="n">
-        <v>1.828032784501033</v>
+        <v>1.10689806388691</v>
       </c>
       <c r="D7" t="n">
-        <v>8.375127640032703</v>
+        <v>1.3424733521879</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.140080701523613</v>
+        <v>2.256450641510126</v>
       </c>
       <c r="F7" t="n">
-        <v>7.177438031889831</v>
+        <v>5.170014805481797</v>
       </c>
       <c r="G7" t="n">
-        <v>10.4748899481971</v>
+        <v>5.153751885278444</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.787598572113602</v>
+        <v>-0.1952483185895791</v>
       </c>
       <c r="I7" t="n">
-        <v>5.683436039149808</v>
+        <v>7.703054713055342</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.005895863951285265</v>
+        <v>1.852958402916555</v>
       </c>
       <c r="K7" t="n">
-        <v>1.858700160096941</v>
+        <v>3.546317906875929</v>
       </c>
       <c r="L7" t="n">
-        <v>11.91649412951666</v>
+        <v>-3.857065036477403</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6877303061712728</v>
+        <v>1.069174568131278</v>
       </c>
       <c r="N7" t="n">
-        <v>-2.30686291910636</v>
+        <v>6.993456079379818</v>
       </c>
       <c r="O7" t="n">
-        <v>3.232920018619978</v>
+        <v>17.11243627858237</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5370394427357691</v>
+        <v>4.941594296467014</v>
       </c>
       <c r="Q7" t="n">
-        <v>11.06960240024262</v>
+        <v>0.7949896318884241</v>
       </c>
     </row>
     <row r="8">
@@ -854,52 +854,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.262608038207853</v>
+        <v>27.49453891700169</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.103242772726316</v>
+        <v>4.398413883795521</v>
       </c>
       <c r="D8" t="n">
-        <v>-12.7925489476808</v>
+        <v>-10.79123611725882</v>
       </c>
       <c r="E8" t="n">
-        <v>11.29610652727738</v>
+        <v>7.42258916920427</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.358864416037344</v>
+        <v>-0.2666211815236582</v>
       </c>
       <c r="G8" t="n">
-        <v>1.631099993578877</v>
+        <v>-2.344030977188412</v>
       </c>
       <c r="H8" t="n">
-        <v>1.470451434136899</v>
+        <v>-2.468803116819266</v>
       </c>
       <c r="I8" t="n">
-        <v>4.844390201901318</v>
+        <v>0.4649001073531859</v>
       </c>
       <c r="J8" t="n">
-        <v>2.365451291020325</v>
+        <v>5.013303480723808</v>
       </c>
       <c r="K8" t="n">
-        <v>14.20847864289112</v>
+        <v>0.7179538447214361</v>
       </c>
       <c r="L8" t="n">
-        <v>3.21826602420645</v>
+        <v>0.8746506115345071</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.8117941516062978</v>
+        <v>5.344969558420969</v>
       </c>
       <c r="N8" t="n">
-        <v>2.343403470909818</v>
+        <v>4.654783639875077</v>
       </c>
       <c r="O8" t="n">
-        <v>1.440828391765877</v>
+        <v>1.498033322563415</v>
       </c>
       <c r="P8" t="n">
-        <v>12.48986792232793</v>
+        <v>13.2819082441379</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.868937333917367</v>
+        <v>1.868620683636425</v>
       </c>
     </row>
     <row r="9">
@@ -909,52 +909,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.805933775048922</v>
+        <v>5.045418358254545</v>
       </c>
       <c r="C9" t="n">
-        <v>1.175563066841509</v>
+        <v>-3.115386273647082</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.815678669948427</v>
+        <v>-1.036611001926858</v>
       </c>
       <c r="E9" t="n">
-        <v>5.201054681109448</v>
+        <v>0.5008784718398032</v>
       </c>
       <c r="F9" t="n">
-        <v>6.61892027949322</v>
+        <v>3.085609098881468</v>
       </c>
       <c r="G9" t="n">
-        <v>4.859694546131098</v>
+        <v>5.96087427145964</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3584038281236141</v>
+        <v>-2.507416252114525</v>
       </c>
       <c r="I9" t="n">
-        <v>2.247397728566543</v>
+        <v>0.2076050359171674</v>
       </c>
       <c r="J9" t="n">
-        <v>-4.561267823869759</v>
+        <v>5.224914790634967</v>
       </c>
       <c r="K9" t="n">
-        <v>12.74540661251133</v>
+        <v>1.141285177903672</v>
       </c>
       <c r="L9" t="n">
-        <v>2.369911627237258</v>
+        <v>2.612607805262336</v>
       </c>
       <c r="M9" t="n">
-        <v>4.058376408730056</v>
+        <v>0.209680291252908</v>
       </c>
       <c r="N9" t="n">
-        <v>4.563502291377146</v>
+        <v>0.8047079318621791</v>
       </c>
       <c r="O9" t="n">
-        <v>5.354036491990614</v>
+        <v>3.381031899028428</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.460290098992448</v>
+        <v>18.68647604041724</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.59606066889839</v>
+        <v>-4.325124028871036</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-286.2656495554073</v>
+        <v>-275.2459096310733</v>
       </c>
     </row>
     <row r="3">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>214.0454383851693</v>
+        <v>281.0554838617188</v>
       </c>
     </row>
     <row r="4">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>243.3578896610716</v>
+        <v>148.3407848566225</v>
       </c>
     </row>
     <row r="5">
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>298.3238326727351</v>
+        <v>219.1854270122569</v>
       </c>
     </row>
     <row r="6">
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>190.433678109844</v>
+        <v>147.8264145572918</v>
       </c>
     </row>
     <row r="7">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>255.6724660025462</v>
+        <v>227.8431875601237</v>
       </c>
     </row>
     <row r="8">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>211.6169476861319</v>
+        <v>211.4306947541517</v>
       </c>
     </row>
     <row r="9">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>236.9979842564929</v>
+        <v>242.6551304195584</v>
       </c>
     </row>
     <row r="10">
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>161.2302404076299</v>
+        <v>187.9141627353605</v>
       </c>
     </row>
     <row r="11">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>210.0717368524505</v>
+        <v>239.6772389256476</v>
       </c>
     </row>
     <row r="12">
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>303.8826939698105</v>
+        <v>280.5885602666945</v>
       </c>
     </row>
     <row r="13">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>322.8307409784812</v>
+        <v>253.9903492090896</v>
       </c>
     </row>
     <row r="14">
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>277.7405656534738</v>
+        <v>194.7944831959388</v>
       </c>
     </row>
     <row r="15">
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>241.4250380089846</v>
+        <v>256.0692776521478</v>
       </c>
     </row>
     <row r="16">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>212.6320115923584</v>
+        <v>204.013445797989</v>
       </c>
     </row>
     <row r="17">
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>283.2987504435488</v>
+        <v>297.3882677910987</v>
       </c>
     </row>
     <row r="18">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>173.1145402422945</v>
+        <v>292.6068390368043</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte4/Excel/Network16.xlsx
+++ b/Networks/Parte4/Excel/Network16.xlsx
@@ -524,52 +524,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-243.1939921186173</v>
+        <v>-80.43898936921897</v>
       </c>
       <c r="C2" t="n">
-        <v>-81.30094749596974</v>
+        <v>-84.59693280944545</v>
       </c>
       <c r="D2" t="n">
-        <v>-180.9990379920282</v>
+        <v>21.34236523684379</v>
       </c>
       <c r="E2" t="n">
-        <v>66.47060873810901</v>
+        <v>10.38196275134003</v>
       </c>
       <c r="F2" t="n">
-        <v>-81.38914818221747</v>
+        <v>-95.12887749917114</v>
       </c>
       <c r="G2" t="n">
-        <v>16.69341000807308</v>
+        <v>-92.19922354081878</v>
       </c>
       <c r="H2" t="n">
-        <v>101.8449389561158</v>
+        <v>26.32510524637755</v>
       </c>
       <c r="I2" t="n">
-        <v>84.40763551555976</v>
+        <v>-87.49995246128725</v>
       </c>
       <c r="J2" t="n">
-        <v>-200.7032067908499</v>
+        <v>-36.51126466649291</v>
       </c>
       <c r="K2" t="n">
-        <v>-239.6031066167007</v>
+        <v>41.22878403531359</v>
       </c>
       <c r="L2" t="n">
-        <v>146.0025018955688</v>
+        <v>-66.39558306760348</v>
       </c>
       <c r="M2" t="n">
-        <v>101.9121830324092</v>
+        <v>-35.82270513158981</v>
       </c>
       <c r="N2" t="n">
-        <v>-151.3686498915748</v>
+        <v>6.547334700058046</v>
       </c>
       <c r="O2" t="n">
-        <v>5.635390028382238</v>
+        <v>-57.86166776779288</v>
       </c>
       <c r="P2" t="n">
-        <v>-259.4556294321636</v>
+        <v>-5.303354547393592</v>
       </c>
       <c r="Q2" t="n">
-        <v>-246.8643984678709</v>
+        <v>25.49832450630915</v>
       </c>
     </row>
     <row r="3">
@@ -579,52 +579,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.6319220127359</v>
+        <v>36.12173736708888</v>
       </c>
       <c r="C3" t="n">
-        <v>119.6674536229856</v>
+        <v>36.6965667762617</v>
       </c>
       <c r="D3" t="n">
-        <v>83.14238006490058</v>
+        <v>-23.44653238773396</v>
       </c>
       <c r="E3" t="n">
-        <v>56.92100178758089</v>
+        <v>15.21481609898233</v>
       </c>
       <c r="F3" t="n">
-        <v>128.1607460927516</v>
+        <v>22.64823500236385</v>
       </c>
       <c r="G3" t="n">
-        <v>171.4109663068704</v>
+        <v>31.17960714002092</v>
       </c>
       <c r="H3" t="n">
-        <v>129.2003996650804</v>
+        <v>37.55553220181722</v>
       </c>
       <c r="I3" t="n">
-        <v>58.50476529219119</v>
+        <v>24.69445985098462</v>
       </c>
       <c r="J3" t="n">
-        <v>112.197919324819</v>
+        <v>37.65414465796103</v>
       </c>
       <c r="K3" t="n">
-        <v>64.96024009533195</v>
+        <v>34.72733634546212</v>
       </c>
       <c r="L3" t="n">
-        <v>104.7653737607316</v>
+        <v>40.08828477343197</v>
       </c>
       <c r="M3" t="n">
-        <v>-83.09910869998495</v>
+        <v>50.9459639680981</v>
       </c>
       <c r="N3" t="n">
-        <v>131.1186705829199</v>
+        <v>52.17678629191545</v>
       </c>
       <c r="O3" t="n">
-        <v>121.2680636650181</v>
+        <v>48.27450336493471</v>
       </c>
       <c r="P3" t="n">
-        <v>64.39915265898586</v>
+        <v>48.04927139684878</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.77513112721221</v>
+        <v>24.83091110107623</v>
       </c>
     </row>
     <row r="4">
@@ -634,52 +634,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.81811540575269</v>
+        <v>31.93669440890826</v>
       </c>
       <c r="C4" t="n">
-        <v>28.13002774007484</v>
+        <v>27.42958055239869</v>
       </c>
       <c r="D4" t="n">
-        <v>60.39618540557586</v>
+        <v>22.98535237417797</v>
       </c>
       <c r="E4" t="n">
-        <v>2.907015918497961</v>
+        <v>5.474406718883306</v>
       </c>
       <c r="F4" t="n">
-        <v>120.0480845388575</v>
+        <v>23.76700586937886</v>
       </c>
       <c r="G4" t="n">
-        <v>4.93944801234199</v>
+        <v>27.11280669802687</v>
       </c>
       <c r="H4" t="n">
-        <v>-13.33194352916146</v>
+        <v>-0.5426471678387098</v>
       </c>
       <c r="I4" t="n">
-        <v>109.7717961123744</v>
+        <v>23.87075216396777</v>
       </c>
       <c r="J4" t="n">
-        <v>102.3713184613232</v>
+        <v>12.55619769111444</v>
       </c>
       <c r="K4" t="n">
-        <v>54.80396990263039</v>
+        <v>-3.92277470880153</v>
       </c>
       <c r="L4" t="n">
-        <v>-8.632618097190955</v>
+        <v>30.63898971081599</v>
       </c>
       <c r="M4" t="n">
-        <v>92.12903061158782</v>
+        <v>43.52161071855134</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8919848257689</v>
+        <v>1.316285222177179</v>
       </c>
       <c r="O4" t="n">
-        <v>112.8494175487239</v>
+        <v>40.02004666684572</v>
       </c>
       <c r="P4" t="n">
-        <v>60.16204154303793</v>
+        <v>40.75862693202311</v>
       </c>
       <c r="Q4" t="n">
-        <v>69.14370838050482</v>
+        <v>38.31820406273182</v>
       </c>
     </row>
     <row r="5">
@@ -689,52 +689,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37.33970044680822</v>
+        <v>10.84838020883303</v>
       </c>
       <c r="C5" t="n">
-        <v>105.8767028341903</v>
+        <v>18.39450958226062</v>
       </c>
       <c r="D5" t="n">
-        <v>47.08830341561317</v>
+        <v>5.964016709850147</v>
       </c>
       <c r="E5" t="n">
-        <v>93.59233344982236</v>
+        <v>23.9704887004397</v>
       </c>
       <c r="F5" t="n">
-        <v>28.11238677540703</v>
+        <v>16.49886809624139</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8325292616237553</v>
+        <v>16.20013579152447</v>
       </c>
       <c r="H5" t="n">
-        <v>2.217363088962681</v>
+        <v>2.767597077344891</v>
       </c>
       <c r="I5" t="n">
-        <v>11.18402384897622</v>
+        <v>12.35497611026126</v>
       </c>
       <c r="J5" t="n">
-        <v>41.44191902213637</v>
+        <v>26.56690539195412</v>
       </c>
       <c r="K5" t="n">
-        <v>48.53281636394871</v>
+        <v>1.480528378347572</v>
       </c>
       <c r="L5" t="n">
-        <v>-10.0585884040484</v>
+        <v>14.47997330266823</v>
       </c>
       <c r="M5" t="n">
-        <v>14.88436247832616</v>
+        <v>14.193358526084</v>
       </c>
       <c r="N5" t="n">
-        <v>44.89994228350574</v>
+        <v>9.232601559639386</v>
       </c>
       <c r="O5" t="n">
-        <v>16.74658281456966</v>
+        <v>13.45533195688077</v>
       </c>
       <c r="P5" t="n">
-        <v>29.14513131130226</v>
+        <v>4.506013323324806</v>
       </c>
       <c r="Q5" t="n">
-        <v>55.50385203414432</v>
+        <v>0.9495051997838768</v>
       </c>
     </row>
     <row r="6">
@@ -744,52 +744,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.71402753062653</v>
+        <v>2.40863374808568</v>
       </c>
       <c r="C6" t="n">
-        <v>33.78460257228782</v>
+        <v>16.53777520442131</v>
       </c>
       <c r="D6" t="n">
-        <v>30.20333968747974</v>
+        <v>0.7189910774185907</v>
       </c>
       <c r="E6" t="n">
-        <v>51.71956793103686</v>
+        <v>14.58348644402134</v>
       </c>
       <c r="F6" t="n">
-        <v>25.19994864718893</v>
+        <v>8.721856521101261</v>
       </c>
       <c r="G6" t="n">
-        <v>9.778087468236032</v>
+        <v>16.42272544058079</v>
       </c>
       <c r="H6" t="n">
-        <v>4.401552600219372</v>
+        <v>2.485669232755435</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2410845010952696</v>
+        <v>12.21574172971754</v>
       </c>
       <c r="J6" t="n">
-        <v>15.88501938413959</v>
+        <v>19.31443802007323</v>
       </c>
       <c r="K6" t="n">
-        <v>29.50388027570528</v>
+        <v>1.495710335843043</v>
       </c>
       <c r="L6" t="n">
-        <v>-2.082729104739657</v>
+        <v>10.79192134704409</v>
       </c>
       <c r="M6" t="n">
-        <v>15.34061134369629</v>
+        <v>8.638529127920561</v>
       </c>
       <c r="N6" t="n">
-        <v>34.96449189011512</v>
+        <v>6.238474256616009</v>
       </c>
       <c r="O6" t="n">
-        <v>23.39425956166872</v>
+        <v>7.889235635674853</v>
       </c>
       <c r="P6" t="n">
-        <v>25.19671158318345</v>
+        <v>6.787766561437699</v>
       </c>
       <c r="Q6" t="n">
-        <v>30.61937460147919</v>
+        <v>-4.921624540120979</v>
       </c>
     </row>
     <row r="7">
@@ -799,52 +799,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.54439782395952</v>
+        <v>1.386852788308471</v>
       </c>
       <c r="C7" t="n">
-        <v>1.10689806388691</v>
+        <v>1.674038817980375</v>
       </c>
       <c r="D7" t="n">
-        <v>1.3424733521879</v>
+        <v>3.310216006770275</v>
       </c>
       <c r="E7" t="n">
-        <v>2.256450641510126</v>
+        <v>4.819300480219698</v>
       </c>
       <c r="F7" t="n">
-        <v>5.170014805481797</v>
+        <v>0.9248943133802958</v>
       </c>
       <c r="G7" t="n">
-        <v>5.153751885278444</v>
+        <v>2.024029031774504</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.1952483185895791</v>
+        <v>-0.1502223852548318</v>
       </c>
       <c r="I7" t="n">
-        <v>7.703054713055342</v>
+        <v>2.83263571191881</v>
       </c>
       <c r="J7" t="n">
-        <v>1.852958402916555</v>
+        <v>3.296912335015902</v>
       </c>
       <c r="K7" t="n">
-        <v>3.546317906875929</v>
+        <v>0.03610241284409525</v>
       </c>
       <c r="L7" t="n">
-        <v>-3.857065036477403</v>
+        <v>2.249625007395552</v>
       </c>
       <c r="M7" t="n">
-        <v>1.069174568131278</v>
+        <v>2.414590305445437</v>
       </c>
       <c r="N7" t="n">
-        <v>6.993456079379818</v>
+        <v>-1.382018293644014</v>
       </c>
       <c r="O7" t="n">
-        <v>17.11243627858237</v>
+        <v>1.467238525330903</v>
       </c>
       <c r="P7" t="n">
-        <v>4.941594296467014</v>
+        <v>0.5226543081061649</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7949896318884241</v>
+        <v>0.3310723279829608</v>
       </c>
     </row>
     <row r="8">
@@ -854,52 +854,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.49453891700169</v>
+        <v>0.234886022788448</v>
       </c>
       <c r="C8" t="n">
-        <v>4.398413883795521</v>
+        <v>2.307973429121319</v>
       </c>
       <c r="D8" t="n">
-        <v>-10.79123611725882</v>
+        <v>-1.30811233217117</v>
       </c>
       <c r="E8" t="n">
-        <v>7.42258916920427</v>
+        <v>0.5616666195211862</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2666211815236582</v>
+        <v>1.965838236257432</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.344030977188412</v>
+        <v>1.985181297714537</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.468803116819266</v>
+        <v>0.69750481803818</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4649001073531859</v>
+        <v>-0.487758710887738</v>
       </c>
       <c r="J8" t="n">
-        <v>5.013303480723808</v>
+        <v>4.688530991267798</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7179538447214361</v>
+        <v>-0.123269317262097</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8746506115345071</v>
+        <v>2.13186204198269</v>
       </c>
       <c r="M8" t="n">
-        <v>5.344969558420969</v>
+        <v>-1.003966738577074</v>
       </c>
       <c r="N8" t="n">
-        <v>4.654783639875077</v>
+        <v>2.106026688975086</v>
       </c>
       <c r="O8" t="n">
-        <v>1.498033322563415</v>
+        <v>0.8787126322624352</v>
       </c>
       <c r="P8" t="n">
-        <v>13.2819082441379</v>
+        <v>-0.6086727745488361</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.868620683636425</v>
+        <v>1.844944573837262</v>
       </c>
     </row>
     <row r="9">
@@ -909,52 +909,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.045418358254545</v>
+        <v>0.5875991551779893</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.115386273647082</v>
+        <v>1.229408458289134</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.036611001926858</v>
+        <v>-0.6809125198675811</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5008784718398032</v>
+        <v>-1.046585594789087</v>
       </c>
       <c r="F9" t="n">
-        <v>3.085609098881468</v>
+        <v>1.297238711683581</v>
       </c>
       <c r="G9" t="n">
-        <v>5.96087427145964</v>
+        <v>1.929372806937975</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.507416252114525</v>
+        <v>-0.1446273075641309</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2076050359171674</v>
+        <v>2.026026573466379</v>
       </c>
       <c r="J9" t="n">
-        <v>5.224914790634967</v>
+        <v>-3.200875860748735</v>
       </c>
       <c r="K9" t="n">
-        <v>1.141285177903672</v>
+        <v>0.5468405783365957</v>
       </c>
       <c r="L9" t="n">
-        <v>2.612607805262336</v>
+        <v>1.338712719398873</v>
       </c>
       <c r="M9" t="n">
-        <v>0.209680291252908</v>
+        <v>1.96868303023525</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8047079318621791</v>
+        <v>1.292456659416576</v>
       </c>
       <c r="O9" t="n">
-        <v>3.381031899028428</v>
+        <v>4.18929850050441</v>
       </c>
       <c r="P9" t="n">
-        <v>18.68647604041724</v>
+        <v>3.080578912428321</v>
       </c>
       <c r="Q9" t="n">
-        <v>-4.325124028871036</v>
+        <v>1.66130742878565</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-275.2459096310733</v>
+        <v>-130.5267979698347</v>
       </c>
     </row>
     <row r="3">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>281.0554838617188</v>
+        <v>237.3162127402424</v>
       </c>
     </row>
     <row r="4">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.3407848566225</v>
+        <v>241.0222913309289</v>
       </c>
     </row>
     <row r="5">
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>219.1854270122569</v>
+        <v>198.2821385838752</v>
       </c>
     </row>
     <row r="6">
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>147.8264145572918</v>
+        <v>148.1299780180685</v>
       </c>
     </row>
     <row r="7">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>227.8431875601237</v>
+        <v>255.1211460002976</v>
       </c>
     </row>
     <row r="8">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>211.4306947541517</v>
+        <v>253.0847800494708</v>
       </c>
     </row>
     <row r="9">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>242.6551304195584</v>
+        <v>206.8081961141725</v>
       </c>
     </row>
     <row r="10">
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>187.9141627353605</v>
+        <v>239.7413955284346</v>
       </c>
     </row>
     <row r="11">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>239.6772389256476</v>
+        <v>189.5307542810294</v>
       </c>
     </row>
     <row r="12">
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>280.5885602666945</v>
+        <v>217.9731197395053</v>
       </c>
     </row>
     <row r="13">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>253.9903492090896</v>
+        <v>237.0091498950191</v>
       </c>
     </row>
     <row r="14">
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>194.7944831959388</v>
+        <v>219.0983079764121</v>
       </c>
     </row>
     <row r="15">
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>256.0692776521478</v>
+        <v>187.4066649630552</v>
       </c>
     </row>
     <row r="16">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>204.013445797989</v>
+        <v>236.6716639065425</v>
       </c>
     </row>
     <row r="17">
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.3882677910987</v>
+        <v>204.0489046305277</v>
       </c>
     </row>
     <row r="18">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>292.6068390368043</v>
+        <v>183.5250503332178</v>
       </c>
     </row>
   </sheetData>
